--- a/secure/26e-Jacy.xlsx
+++ b/secure/26e-Jacy.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Jacy-839917</t>
+    <t>26e-Jacy-996014</t>
   </si>
   <si>
-    <t>26e-Jacy-859592</t>
+    <t>26e-Jacy-594123</t>
   </si>
   <si>
-    <t>26e-Jacy-482665</t>
+    <t>26e-Jacy-118041</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F9bf3998"/>
+        <fgColor rgb="Fba4f15a"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:TI503"/>
+  <dimension ref="A1:NE503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1357,14 +1357,11 @@
       </c>
       <c r="M151" s="4"/>
     </row>
-    <row r="152" spans="1:529" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>-0.4</v>
       </c>
       <c r="M152" s="4"/>
-      <c r="TI152" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
@@ -1930,14 +1927,11 @@
       </c>
       <c r="M246" s="4"/>
     </row>
-    <row r="247" spans="1:503" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>-0.02</v>
       </c>
       <c r="M247" s="4"/>
-      <c r="SI247" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
@@ -2053,11 +2047,14 @@
       </c>
       <c r="M266" s="4"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:369" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>0.06</v>
       </c>
       <c r="M267" s="4"/>
+      <c r="NE267" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
@@ -2569,11 +2566,14 @@
       </c>
       <c r="M352" s="4"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>0.404</v>
       </c>
       <c r="M353" s="4"/>
+      <c r="DI353" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
@@ -2797,11 +2797,14 @@
       </c>
       <c r="M390" s="4"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:138" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>0.556</v>
       </c>
       <c r="M391" s="4"/>
+      <c r="EH391" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
@@ -3007,14 +3010,11 @@
       </c>
       <c r="M425" s="4"/>
     </row>
-    <row r="426" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>0.696</v>
       </c>
       <c r="M426" s="4"/>
-      <c r="BD426" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
